--- a/upload/excel/2504_동신중_발주서_에스에이치유통_업로드용.xlsx
+++ b/upload/excel/2504_동신중_발주서_에스에이치유통_업로드용.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AK23"/>
+  <dimension ref="A1:AL23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
@@ -766,6 +767,11 @@
       <c r="AK5" s="2" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -839,6 +845,9 @@
           <t>46</t>
         </is>
       </c>
+      <c r="AL6" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -910,6 +919,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="AL7" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -984,6 +996,9 @@
         <is>
           <t>50</t>
         </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>15000</v>
       </c>
     </row>
     <row r="9">
@@ -1056,6 +1071,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="AL9" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1127,6 +1145,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AL10" t="n">
+        <v>9010</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -1197,6 +1218,9 @@
         <is>
           <t>5</t>
         </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>9010</v>
       </c>
     </row>
     <row r="12">
@@ -1268,6 +1292,9 @@
         <is>
           <t>32</t>
         </is>
+      </c>
+      <c r="AL12" t="n">
+        <v>12000</v>
       </c>
     </row>
     <row r="13">
@@ -1340,6 +1367,9 @@
           <t>20</t>
         </is>
       </c>
+      <c r="AL13" t="n">
+        <v>14000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
@@ -1410,6 +1440,9 @@
         <is>
           <t>13</t>
         </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>14000</v>
       </c>
     </row>
     <row r="15">
@@ -1482,6 +1515,9 @@
           <t>27</t>
         </is>
       </c>
+      <c r="AL15" t="n">
+        <v>14000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
@@ -1557,6 +1593,9 @@
           <t>60</t>
         </is>
       </c>
+      <c r="AL16" t="n">
+        <v>14000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
@@ -1631,6 +1670,9 @@
         <is>
           <t>20</t>
         </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>4270</v>
       </c>
     </row>
     <row r="18">
@@ -1699,6 +1741,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="AL18" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
@@ -1766,6 +1811,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="AL19" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -1840,6 +1888,9 @@
         <is>
           <t>5.5</t>
         </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>34000</v>
       </c>
     </row>
     <row r="21">
@@ -1912,6 +1963,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AL21" t="n">
+        <v>34000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -1987,6 +2041,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AL22" t="n">
+        <v>34000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr"/>
